--- a/auticon SQL Training Assignments and Time Log.xlsx
+++ b/auticon SQL Training Assignments and Time Log.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="107">
   <si>
     <t>auticon SQL Training Curriculum</t>
   </si>
@@ -343,6 +343,26 @@
   </si>
   <si>
     <t>Perform a comparison of the resulting .csv file with the original .csv file (USStatesandTerritories2021PopulationData.csv) using your favorite comparison (differences) tool.  Take a screenshot.</t>
+  </si>
+  <si>
+    <t>ERDs.  ERDs are a critical part of all relational database work.  Here are some questions for you to answer:
+1. What is a primary key (PK)?  Look it up if you're not sure, but answer in your own words, don't copy and paste what you read.
+2. What data type should BirthDate be?
+3. What data type should Gender be?
+4. What do you suspect that AddressType is used for?  Given your assumption, what type should it be?
+5. What data type should MartialStatus be?
+6. What kind of table is EmployeeAddress?
+7. If you wanted to model the ""Reports To"" relationship, how would you modify this schema given what you know about the business world?  Look up the syntax for ALTER TABLE and express your answer as SQL.
+8. If you were to add a ""Level"" field (for employee level), what data type would that be?  Once again, express this as an ALTER TABLE.
+9. If you had to store a photo of the employee, what would you name the column and what would its type be?  Express as ALTER TABLE.
+10. What type should ModifiedDate be?  Pretend that this field doesn't exist and express this, too, as an ALTER TABLE.
+10. What should StateProvinceID's type be?</t>
+  </si>
+  <si>
+    <t>Practice SQL Challenge</t>
+  </si>
+  <si>
+    <t>Geektastic SQL Challenge</t>
   </si>
 </sst>
 </file>
@@ -475,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -586,6 +606,29 @@
     <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="21" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="21" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -640,7 +683,36 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4124325" cy="3467100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -655,7 +727,7 @@
     <xdr:ext cx="13087350" cy="17773650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -677,7 +749,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:F64" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:F67" displayName="Table_1" id="1">
   <tableColumns count="6">
     <tableColumn name="Week #" id="1"/>
     <tableColumn name="Link" id="2"/>
@@ -896,8 +968,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="7.38"/>
     <col customWidth="1" min="2" max="2" width="13.5"/>
-    <col customWidth="1" min="3" max="3" width="37.25"/>
-    <col customWidth="1" min="4" max="4" width="19.63"/>
+    <col customWidth="1" min="3" max="3" width="47.63"/>
+    <col customWidth="1" min="4" max="4" width="28.25"/>
     <col customWidth="1" min="5" max="5" width="29.13"/>
     <col customWidth="1" min="6" max="6" width="8.38"/>
     <col customWidth="1" min="7" max="8" width="7.63"/>
@@ -2111,9 +2183,46 @@
         <v>10.0</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="65" ht="348.75" customHeight="1">
+      <c r="A65" s="48">
+        <v>5.0</v>
+      </c>
+      <c r="B65" s="49"/>
+      <c r="C65" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="47">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="52">
+        <v>5.0</v>
+      </c>
+      <c r="B66" s="53"/>
+      <c r="C66" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="56"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="48">
+        <v>5.0</v>
+      </c>
+      <c r="B67" s="49"/>
+      <c r="C67" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="47">
+        <v>60.0</v>
+      </c>
+    </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1"/>
     <row r="70" ht="15.75" customHeight="1"/>

--- a/auticon SQL Training Assignments and Time Log.xlsx
+++ b/auticon SQL Training Assignments and Time Log.xlsx
@@ -495,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -624,9 +624,6 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2207,7 +2204,9 @@
       </c>
       <c r="D66" s="55"/>
       <c r="E66" s="55"/>
-      <c r="F66" s="56"/>
+      <c r="F66" s="46">
+        <v>360.0</v>
+      </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="48">
